--- a/project/defect report project.xlsx
+++ b/project/defect report project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30399c8c819f463c/Desktop/megha doc/TOPS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30399c8c819f463c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{83AB4AF3-3817-4EF8-8CF8-EA197BC54D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40436C72-163E-426B-9A4D-CA573B1416E8}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="13_ncr:1_{83AB4AF3-3817-4EF8-8CF8-EA197BC54D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86F448D6-3160-4030-8DF8-29E72D1CD9CF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{43E74354-1CFC-4762-A2B4-A3DD6877E71B}"/>
   </bookViews>
@@ -913,7 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -947,10 +947,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1280,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6BFA60-E8FD-4535-BD1A-2A65C307AE21}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I47" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="I41" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1437,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>143</v>
@@ -1478,7 +1475,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>143</v>
@@ -1519,7 +1516,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>143</v>
@@ -1560,7 +1557,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>143</v>
@@ -1642,7 +1639,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>143</v>
@@ -2871,7 +2868,7 @@
       <c r="E39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="10" t="s">
         <v>142</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -2944,7 +2941,7 @@
       <c r="B41" s="4">
         <v>40</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>171</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -2983,7 +2980,7 @@
       <c r="B42" s="4">
         <v>40</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>110</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -2993,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>143</v>
@@ -3215,7 +3212,7 @@
       <c r="K47" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="L47" s="18" t="s">
+      <c r="L47" s="17" t="s">
         <v>182</v>
       </c>
       <c r="M47" s="7" t="s">
